--- a/2.Excel/hands-on/5.Ferramentas_dados/Exercicios_fixacao.xlsx
+++ b/2.Excel/hands-on/5.Ferramentas_dados/Exercicios_fixacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Ferramentas_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E726B8-EC22-4756-8A52-47DFD3915331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E2A8E-60E6-478A-B598-4978C76A1EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="3239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6505" uniqueCount="3239">
   <si>
     <t>Nome</t>
   </si>
@@ -11000,16 +11000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>397573</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53017</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35281</xdr:rowOff>
+      <xdr:rowOff>2150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519044</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>139290</xdr:rowOff>
+      <xdr:rowOff>106159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11024,8 +11024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4512373" y="218161"/>
-          <a:ext cx="5342827" cy="286889"/>
+          <a:off x="6911017" y="187680"/>
+          <a:ext cx="5342827" cy="289540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11116,16 +11116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>113714</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378758</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>79759</xdr:rowOff>
+      <xdr:rowOff>46628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>70437</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335481</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>58285</xdr:rowOff>
+      <xdr:rowOff>25154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11140,8 +11140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4228514" y="79759"/>
-          <a:ext cx="566323" cy="527166"/>
+          <a:off x="6627158" y="46628"/>
+          <a:ext cx="566323" cy="535117"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11199,16 +11199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>310321</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>575365</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>46389</xdr:rowOff>
+      <xdr:rowOff>13258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>310322</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>575366</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138049</xdr:rowOff>
+      <xdr:rowOff>104918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11223,7 +11223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4425121" y="974041"/>
+          <a:off x="6823765" y="940910"/>
           <a:ext cx="5486401" cy="462721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11340,16 +11340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>110153</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375197</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180213</xdr:rowOff>
+      <xdr:rowOff>147082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>61844</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326888</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>172847</xdr:rowOff>
+      <xdr:rowOff>139716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11364,7 +11364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4224953" y="922335"/>
+          <a:off x="6623597" y="889204"/>
           <a:ext cx="561291" cy="549225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -11423,16 +11423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>310321</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>575365</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>176703</xdr:rowOff>
+      <xdr:rowOff>143572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>310322</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>575366</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>79520</xdr:rowOff>
+      <xdr:rowOff>46389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11447,7 +11447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4425121" y="1846477"/>
+          <a:off x="6823765" y="1813346"/>
           <a:ext cx="5486401" cy="459408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11564,16 +11564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>110153</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375197</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121684</xdr:rowOff>
+      <xdr:rowOff>88553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>61844</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326888</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114318</xdr:rowOff>
+      <xdr:rowOff>81187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11588,7 +11588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4224953" y="1791458"/>
+          <a:off x="6623597" y="1758327"/>
           <a:ext cx="561291" cy="549225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -11647,16 +11647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>429589</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10993</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85033</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>330199</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595243</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>110034</xdr:rowOff>
+      <xdr:rowOff>76903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11671,7 +11671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4544389" y="2793950"/>
+          <a:off x="6943033" y="2760819"/>
           <a:ext cx="5387010" cy="284571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11768,16 +11768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>128811</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393855</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>74573</xdr:rowOff>
+      <xdr:rowOff>41442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76322</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341366</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63171</xdr:rowOff>
+      <xdr:rowOff>30040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11792,7 +11792,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4243611" y="2671999"/>
+          <a:off x="6642255" y="2638868"/>
           <a:ext cx="557111" cy="545189"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -44330,7 +44330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31145C09-40AD-47A7-A7DB-0FC6156398E5}">
   <dimension ref="B1:E154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -45168,9 +45168,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C392A96-90CA-473A-9A82-B9B84A0823D2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -45178,9 +45180,11 @@
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -45193,8 +45197,15 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="12">
+        <f>SUM(B:B)</f>
+        <v>39999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -45207,8 +45218,14 @@
       <c r="D2" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -45222,7 +45239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -45236,7 +45253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -45250,7 +45267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -45264,7 +45281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -45278,30 +45295,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12">
-        <f>SUM(B2:B7)</f>
-        <v>35700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12">
-        <v>40000</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4299</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{59D43E3B-A1B5-40E7-A9C6-027345182B34}">
+      <formula1>"Masculino,Feminino"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576" xr:uid="{CC7AAB67-A28F-4C18-BC3B-2F340082F6FF}">
+      <formula1>SUM(B:B)&lt;=$G$2</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor acima do orçamento!" error="O valor inserido irá ultrapassar o orçamento máximo, favor analisar." sqref="B2" xr:uid="{199F4529-2797-49A8-80DA-486C5284FE8C}">
+      <formula1>SUM(B:B)&lt;=$G$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
